--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\myworkspaces\seleniumwebdriver\OpencartV121\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnikolic\IdeaProjects\OpencartV121\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47704AFE-A492-43CB-82D7-6A46F57DC3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E801628A-97D6-44AD-B4D7-608006C77D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16354" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="19200" windowHeight="11710" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Valid</t>
-  </si>
-  <si>
-    <t>laksh@yahoo.com</t>
   </si>
   <si>
     <t>Laxmi</t>
@@ -82,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,14 +98,6 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,13 +150,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -189,9 +178,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,7 +218,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -335,7 +324,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,7 +466,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,7 +477,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,79 +499,79 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21" x14ac:dyDescent="0.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{B4FF4FF2-C3C7-488B-A3F2-29DB9D3EA93F}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{B4FF4FF2-C3C7-488B-A3F2-29DB9D3EA93F}"/>
+    <hyperlink ref="A2" r:id="rId8" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
